--- a/biology/Zoologie/Adasaurus/Adasaurus.xlsx
+++ b/biology/Zoologie/Adasaurus/Adasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adasaurus mongoliensis
 Adasaurus (« lézard d'Ada ») est un genre éteint de dinosaure théropode qui vivait en Mongolie (Bayanhongor) à la fin du Crétacé, il y a 75 Ma. Il fut découvert en 1977. Une seule espèce est connue : Adasaurus mongoliensis.
@@ -512,7 +524,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son nom signifie lézard d’Ada ou reptile diable
 Époque : Crétacé (- 144 à - 65 Ma)
@@ -546,7 +560,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme chez d’autres dromaeosaures, l'os de la hanche ressemble plus à celui d'un ornithischien qu'à celui d’un saurischien. Adasaurus possédait une griffe postérieure semblable à un cran d'arrêt mais plus petite que celle de Deinonychus et de Velociraptor.
 </t>
@@ -577,7 +593,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>GI 100/20 : un crâne incomplet, ilion (20,2 cm); pubis (24,1 cm), ischion (11,8 cm).
 GI 100/51 : os des jambes, phalanges, griffes.</t>
@@ -608,9 +626,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kansaignathus a été placé comme membre basal de la sous-famille Velociraptorinae par Averianov &amp; Lopatin en 2021. Leur cladogramme est présenté ci-dessous[1],[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kansaignathus a été placé comme membre basal de la sous-famille Velociraptorinae par Averianov &amp; Lopatin en 2021. Leur cladogramme est présenté ci-dessous, :
 </t>
         </is>
       </c>
